--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2E97CE65-0C47-4221-BFD8-F0968F9CA814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{69D31D24-D883-4E5B-9464-1C7FEA2DDF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2F7B7C0-C785-4C63-AE20-9C0BB57D4B57}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S4"/>
+  <oleSize ref="A1:S6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Male</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>sanika@gmail.com</t>
+  </si>
+  <si>
+    <t>image2.jpg</t>
+  </si>
+  <si>
+    <t>image3.jpg</t>
+  </si>
+  <si>
+    <t>image4.jpg</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -494,18 +506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05803F6D-6AE3-4B8B-9EA0-CE1771CCBF38}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B35671-093F-4342-B0EE-840D991D305B}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -571,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
@@ -609,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>3</v>
@@ -632,7 +640,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
         <v>9720031702</v>
@@ -647,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>9</v>
@@ -659,13 +667,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{80909CD8-8786-489B-A177-91BE8C631C7F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{F1AAF939-A0F3-45C4-B8CB-BBA6BE94A5E9}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{3843BFE7-6F54-4CC6-B4ED-66207DBB176B}"/>
-    <hyperlink ref="C1" r:id="rId4" xr:uid="{635FC3DA-AED7-4E27-98CD-5554D16DB9B9}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3BAD9FFF-9029-4A2F-A367-9702C6C82517}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{13CD70EE-6B72-487B-BDB3-70A47C928358}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{47FDE7E9-79A5-43E8-849B-5ADDEF7ACD81}"/>
+    <hyperlink ref="C1" r:id="rId4" xr:uid="{5AF91CD2-CA76-44E4-ABAA-95D93DAC263D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
